--- a/specific_variables/flux-components-level1.xlsx
+++ b/specific_variables/flux-components-level1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/NC_parse_master/specific_variables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCD3101-F773-5B4E-823D-A489A42145E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310932DC-C5A2-0445-A145-4A7F900018A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50040" yWindow="-3140" windowWidth="17100" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29200" yWindow="-2460" windowWidth="17100" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables-specific" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="179">
   <si>
     <t>Variable</t>
   </si>
@@ -532,18 +532,6 @@
     <t>Quality flag: WTs</t>
   </si>
   <si>
-    <t>bad_data, good_data, suspect_data</t>
-  </si>
-  <si>
-    <t>0,1, 2</t>
-  </si>
-  <si>
-    <t>bad_data, good_data _good_for_reasearch, suspect_data_good_for_general_use, suspect_data_requires_further_checking_but_may_be_ok_for_general_use</t>
-  </si>
-  <si>
-    <t>0,1, 2, 3</t>
-  </si>
-  <si>
     <t>qc_flag_kurtosis_u</t>
   </si>
   <si>
@@ -554,13 +542,33 @@
   </si>
   <si>
     <t>Height of instrument platform above snow surface</t>
+  </si>
+  <si>
+    <t>&lt;derived from file&gt;</t>
+  </si>
+  <si>
+    <t>0b,1b, 2b</t>
+  </si>
+  <si>
+    <t>bad_data
+good_data 
+suspect_data</t>
+  </si>
+  <si>
+    <t>0b,1b, 2b, 3b</t>
+  </si>
+  <si>
+    <t>bad_data
+good_data _good_for_reasearch
+suspect_data_good_for_general_use
+suspect_data_requires_further_checking_but_may_be_ok_for_general_use</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -581,11 +589,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -617,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -632,12 +635,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -957,10 +971,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C1020"/>
+  <dimension ref="A1:C961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A360" workbookViewId="0">
-      <selection activeCell="C403" sqref="C403"/>
+    <sheetView tabSelected="1" topLeftCell="A678" workbookViewId="0">
+      <selection activeCell="C711" sqref="A1:C711"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -983,149 +997,179 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>10</v>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="10">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C17" s="10">
         <v>-1E+20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+    <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3">
-        <v>-1E+20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="4">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="C20" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1147,39 +1191,42 @@
     </row>
     <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>177</v>
+        <v>13</v>
+      </c>
+      <c r="C27" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="3">
-        <v>-1E+20</v>
+        <v>14</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0.5</v>
+        <v>15</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="4">
-        <v>15</v>
+      <c r="B30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1222,195 +1269,198 @@
     </row>
     <row r="37" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="C38" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="3">
-        <v>-1E+20</v>
+        <v>14</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="4">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
         <v>16</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C41" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="44" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>28</v>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="C49" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="3">
-        <v>-1E+20</v>
+        <v>14</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="4">
-        <v>500</v>
+        <v>15</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="4">
-        <v>800</v>
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="56" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>32</v>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" t="s">
-        <v>33</v>
+        <v>13</v>
+      </c>
+      <c r="C61" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="3">
-        <v>-1E+20</v>
+        <v>14</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" s="4">
-        <v>0</v>
+      <c r="B63" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1487,852 +1537,908 @@
       <c r="B74" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="4">
-        <v>0</v>
+      <c r="C74" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" t="s">
-        <v>26</v>
-      </c>
-      <c r="C75" t="s">
-        <v>27</v>
+      <c r="B75" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" t="s">
         <v>16</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="2" t="s">
+    <row r="78" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" s="3">
-        <v>-1E+20</v>
+        <v>11</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85" s="4">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="C85" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
         <v>26</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C88" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" t="s">
+    <row r="89" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
         <v>16</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C89" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="2" t="s">
+    <row r="90" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92" s="4">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="C94" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95" s="3">
-        <v>-1E+20</v>
+        <v>10</v>
+      </c>
+      <c r="C95" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
-        <v>14</v>
-      </c>
-      <c r="C96" s="4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="C96" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
-        <v>26</v>
-      </c>
-      <c r="C97" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="C97" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
-        <v>16</v>
-      </c>
-      <c r="C98" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>14</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
     <row r="100" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
-        <v>43</v>
+      <c r="B100" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" t="s">
-        <v>24</v>
-      </c>
-    </row>
+        <v>16</v>
+      </c>
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="103" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" t="s">
-        <v>25</v>
+      <c r="A103" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
-        <v>13</v>
-      </c>
-      <c r="C106" s="3">
-        <v>-1E+20</v>
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
-        <v>14</v>
-      </c>
-      <c r="C107" s="4">
-        <v>200</v>
+        <v>11</v>
+      </c>
+      <c r="C107" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
-        <v>15</v>
-      </c>
-      <c r="C108" s="4">
-        <v>300</v>
+        <v>13</v>
+      </c>
+      <c r="C108" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
-        <v>26</v>
-      </c>
-      <c r="C109" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B111" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B112" t="s">
         <v>16</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C112" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="2" t="s">
+    <row r="113" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B115" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115" t="s">
-        <v>45</v>
+        <v>5</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B117" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>47</v>
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
-        <v>13</v>
-      </c>
-      <c r="C118" s="3">
-        <v>-1E+20</v>
+        <v>11</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" s="3">
+        <v>-1E+20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="8"/>
+      <c r="B120" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="8"/>
+      <c r="B121" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B122" t="s">
         <v>26</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C122" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B120" t="s">
-        <v>16</v>
-      </c>
-      <c r="C120" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C121" s="4"/>
-    </row>
-    <row r="122" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="C123" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B124" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124" t="s">
-        <v>24</v>
-      </c>
+      <c r="C124" s="4"/>
     </row>
     <row r="125" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B125" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" t="s">
-        <v>45</v>
+      <c r="A125" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
-        <v>11</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B128" t="s">
-        <v>13</v>
-      </c>
-      <c r="C128" s="3">
-        <v>-1E+20</v>
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
-        <v>26</v>
-      </c>
-      <c r="C129" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B130" t="s">
-        <v>16</v>
-      </c>
-      <c r="C130" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>13</v>
+      </c>
+      <c r="C130" s="3">
+        <v>-1E+20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="8"/>
+      <c r="B131" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
     <row r="132" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="2" t="s">
-        <v>50</v>
+      <c r="A132" s="8"/>
+      <c r="B132" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="C133" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C134" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" t="s">
-        <v>45</v>
-      </c>
-    </row>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="136" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B136" t="s">
-        <v>10</v>
+      <c r="A136" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
-        <v>13</v>
-      </c>
-      <c r="C138" s="3">
-        <v>-1E+20</v>
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
-        <v>16</v>
-      </c>
-      <c r="C140" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>11</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" s="3">
+        <v>-1E+20</v>
+      </c>
+    </row>
     <row r="142" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="2" t="s">
-        <v>52</v>
+      <c r="A142" s="8"/>
+      <c r="B142" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>19</v>
+      <c r="A143" s="8"/>
+      <c r="B143" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
-        <v>3</v>
-      </c>
-      <c r="C145" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B146" t="s">
-        <v>10</v>
-      </c>
-    </row>
+        <v>16</v>
+      </c>
+      <c r="C145" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="147" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B147" t="s">
-        <v>11</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>53</v>
+      <c r="A147" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B148" t="s">
-        <v>13</v>
-      </c>
-      <c r="C148" s="3">
-        <v>-1E+20</v>
+        <v>5</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B149" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
-        <v>16</v>
-      </c>
-      <c r="C150" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>3</v>
+      </c>
+      <c r="C150" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="152" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="2" t="s">
-        <v>54</v>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>19</v>
+      <c r="A153" s="8"/>
+      <c r="B153" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B154" t="s">
-        <v>7</v>
-      </c>
-      <c r="C154" t="s">
-        <v>8</v>
+      <c r="A154" s="8"/>
+      <c r="B154" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
-        <v>3</v>
-      </c>
-      <c r="C155" s="4">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="C155" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B156" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B157" t="s">
-        <v>11</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
+        <v>16</v>
+      </c>
+      <c r="C156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="158" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B158" t="s">
-        <v>13</v>
-      </c>
-      <c r="C158" s="3">
-        <v>-1E+20</v>
+      <c r="A158" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B159" t="s">
-        <v>26</v>
-      </c>
-      <c r="C159" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B160" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="4">
+        <v>1</v>
+      </c>
+    </row>
     <row r="162" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="2" t="s">
-        <v>56</v>
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="C163" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B164" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" t="s">
-        <v>8</v>
+      <c r="A164" s="8"/>
+      <c r="B164" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B165" t="s">
-        <v>3</v>
-      </c>
-      <c r="C165" s="4">
-        <v>1</v>
+      <c r="A165" s="8"/>
+      <c r="B165" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B166" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="C166" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B167" t="s">
-        <v>11</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B168" t="s">
-        <v>13</v>
-      </c>
-      <c r="C168" s="3">
-        <v>-1E+20</v>
-      </c>
-    </row>
+        <v>16</v>
+      </c>
+      <c r="C167" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="169" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B169" t="s">
-        <v>26</v>
-      </c>
-      <c r="C169" t="s">
-        <v>27</v>
+      <c r="A169" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B170" t="s">
-        <v>16</v>
-      </c>
-      <c r="C170" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>5</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="172" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="2" t="s">
-        <v>58</v>
+      <c r="B172" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B173" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B174" t="s">
-        <v>7</v>
-      </c>
-      <c r="C174" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="C174" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B175" t="s">
-        <v>3</v>
-      </c>
-      <c r="C175" s="4">
-        <v>1</v>
+      <c r="A175" s="8"/>
+      <c r="B175" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B176" t="s">
-        <v>10</v>
+      <c r="A176" s="8"/>
+      <c r="B176" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B177" t="s">
-        <v>11</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>59</v>
+        <v>26</v>
+      </c>
+      <c r="C177" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B178" t="s">
-        <v>13</v>
-      </c>
-      <c r="C178" s="3">
-        <v>-1E+20</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B179" t="s">
-        <v>26</v>
-      </c>
-      <c r="C179" t="s">
-        <v>27</v>
-      </c>
-    </row>
+        <v>16</v>
+      </c>
+      <c r="C178" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="180" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B180" t="s">
-        <v>16</v>
-      </c>
-      <c r="C180" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="A180" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="182" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="2" t="s">
-        <v>60</v>
+      <c r="B182" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="C183" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B184" t="s">
-        <v>7</v>
-      </c>
-      <c r="C184" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B185" t="s">
-        <v>3</v>
-      </c>
-      <c r="C185" s="4">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C185" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B186" t="s">
-        <v>10</v>
+      <c r="A186" s="8"/>
+      <c r="B186" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B187" t="s">
-        <v>11</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>61</v>
+      <c r="A187" s="8"/>
+      <c r="B187" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B188" t="s">
-        <v>13</v>
-      </c>
-      <c r="C188" s="3">
-        <v>-1E+20</v>
+        <v>26</v>
+      </c>
+      <c r="C188" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B189" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C189" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B190" t="s">
-        <v>16</v>
-      </c>
-      <c r="C190" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="192" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="2" t="s">
-        <v>62</v>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="C193" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B194" t="s">
-        <v>7</v>
-      </c>
-      <c r="C194" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C194" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B195" t="s">
-        <v>3</v>
-      </c>
-      <c r="C195" s="4">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B196" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C196" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B197" t="s">
-        <v>11</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>63</v>
+      <c r="A197" s="8"/>
+      <c r="B197" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B198" t="s">
-        <v>13</v>
-      </c>
-      <c r="C198" s="3">
-        <v>-1E+20</v>
+      <c r="A198" s="8"/>
+      <c r="B198" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -2354,7 +2460,7 @@
     <row r="201" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="202" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -2383,74 +2489,82 @@
     </row>
     <row r="206" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B206" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B207" t="s">
-        <v>11</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>65</v>
+        <v>13</v>
+      </c>
+      <c r="C207" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B208" t="s">
-        <v>13</v>
-      </c>
-      <c r="C208" s="3">
-        <v>-1E+20</v>
+      <c r="A208" s="8"/>
+      <c r="B208" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C208" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B209" t="s">
-        <v>26</v>
-      </c>
-      <c r="C209" t="s">
-        <v>27</v>
+      <c r="A209" s="8"/>
+      <c r="B209" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C209" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B210" t="s">
+        <v>26</v>
+      </c>
+      <c r="C210" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B211" t="s">
         <v>16</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C211" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
+    <row r="212" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="213" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>19</v>
+      <c r="A213" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B214" t="s">
-        <v>7</v>
-      </c>
-      <c r="C214" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B215" t="s">
-        <v>3</v>
-      </c>
-      <c r="C215" s="4">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C215" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B216" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C216" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -2458,7 +2572,7 @@
         <v>11</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -2470,606 +2584,661 @@
       </c>
     </row>
     <row r="219" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B219" t="s">
+      <c r="A219" s="8"/>
+      <c r="B219" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C219" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="8"/>
+      <c r="B220" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C220" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B221" t="s">
         <v>26</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C221" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B220" t="s">
+    <row r="222" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B222" t="s">
         <v>16</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C222" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A222" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B223" t="s">
-        <v>5</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="223" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="224" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B224" t="s">
-        <v>7</v>
-      </c>
-      <c r="C224" t="s">
-        <v>8</v>
+      <c r="A224" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B225" t="s">
-        <v>3</v>
-      </c>
-      <c r="C225" s="4">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B226" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C226" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B227" t="s">
-        <v>11</v>
-      </c>
-      <c r="C227" t="s">
-        <v>69</v>
+        <v>3</v>
+      </c>
+      <c r="C227" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B228" t="s">
-        <v>13</v>
-      </c>
-      <c r="C228" s="3">
-        <v>-1E+20</v>
+        <v>11</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B229" t="s">
+        <v>13</v>
+      </c>
+      <c r="C229" s="3">
+        <v>-1E+20</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="8"/>
+      <c r="B230" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C230" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="8"/>
+      <c r="B231" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C231" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B232" t="s">
         <v>26</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C232" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B230" t="s">
-        <v>16</v>
-      </c>
-      <c r="C230" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A232" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B233" t="s">
-        <v>5</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B234" t="s">
-        <v>7</v>
-      </c>
-      <c r="C234" t="s">
-        <v>8</v>
-      </c>
-    </row>
+        <v>16</v>
+      </c>
+      <c r="C233" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="235" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B235" t="s">
-        <v>3</v>
-      </c>
-      <c r="C235" s="4">
-        <v>1</v>
+      <c r="A235" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B236" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B237" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B238" t="s">
-        <v>13</v>
-      </c>
-      <c r="C238" s="3">
-        <v>-1E+20</v>
+        <v>3</v>
+      </c>
+      <c r="C238" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B239" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C239" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B240" t="s">
-        <v>16</v>
-      </c>
-      <c r="C240" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>13</v>
+      </c>
+      <c r="C240" s="3">
+        <v>-1E+20</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A241" s="8"/>
+      <c r="B241" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C241" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
     <row r="242" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A242" t="s">
-        <v>72</v>
+      <c r="A242" s="8"/>
+      <c r="B242" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C242" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B243" t="s">
-        <v>5</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="C243" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B244" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C244" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B245" t="s">
-        <v>3</v>
-      </c>
-      <c r="C245" s="4">
-        <v>1</v>
-      </c>
-    </row>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="246" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B246" t="s">
-        <v>10</v>
+      <c r="A246" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B247" t="s">
-        <v>11</v>
-      </c>
-      <c r="C247" t="s">
-        <v>73</v>
+        <v>5</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B248" t="s">
-        <v>13</v>
-      </c>
-      <c r="C248" s="3">
-        <v>-1E+20</v>
+        <v>7</v>
+      </c>
+      <c r="C248" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B249" t="s">
-        <v>26</v>
-      </c>
-      <c r="C249" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="C249" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B250" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C250" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B251" t="s">
+        <v>13</v>
+      </c>
+      <c r="C251" s="3">
+        <v>-1E+20</v>
+      </c>
+    </row>
     <row r="252" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A252" t="s">
-        <v>74</v>
+      <c r="A252" s="8"/>
+      <c r="B252" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C252" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B253" t="s">
-        <v>5</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>19</v>
+      <c r="A253" s="8"/>
+      <c r="B253" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C253" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B254" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C254" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B255" t="s">
-        <v>3</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B256" t="s">
-        <v>10</v>
-      </c>
-    </row>
+        <v>16</v>
+      </c>
+      <c r="C255" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="257" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B257" t="s">
-        <v>11</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>75</v>
+      <c r="A257" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B258" t="s">
-        <v>13</v>
-      </c>
-      <c r="C258" s="3">
-        <v>-1E+20</v>
+        <v>5</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B259" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C259" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B260" t="s">
-        <v>16</v>
-      </c>
-      <c r="C260" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>3</v>
+      </c>
+      <c r="C260" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B261" t="s">
+        <v>11</v>
+      </c>
+      <c r="C261" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="262" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A262" t="s">
-        <v>76</v>
+      <c r="B262" t="s">
+        <v>13</v>
+      </c>
+      <c r="C262" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B263" t="s">
-        <v>5</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>19</v>
+      <c r="A263" s="8"/>
+      <c r="B263" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C263" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B264" t="s">
-        <v>7</v>
-      </c>
-      <c r="C264" t="s">
-        <v>8</v>
+      <c r="A264" s="8"/>
+      <c r="B264" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C264" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B265" t="s">
-        <v>3</v>
-      </c>
-      <c r="C265" s="4" t="s">
-        <v>77</v>
+        <v>26</v>
+      </c>
+      <c r="C265" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B266" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B267" t="s">
-        <v>11</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
+        <v>16</v>
+      </c>
+      <c r="C266" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="268" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B268" t="s">
-        <v>13</v>
-      </c>
-      <c r="C268" s="3">
-        <v>-1E+20</v>
+      <c r="A268" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B269" t="s">
-        <v>26</v>
-      </c>
-      <c r="C269" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B270" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C270" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B271" t="s">
+        <v>3</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="272" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A272" t="s">
-        <v>79</v>
+      <c r="B272" t="s">
+        <v>11</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B273" t="s">
-        <v>5</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="C273" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B274" t="s">
-        <v>7</v>
-      </c>
-      <c r="C274" t="s">
-        <v>8</v>
+      <c r="A274" s="8"/>
+      <c r="B274" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C274" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B275" t="s">
-        <v>3</v>
-      </c>
-      <c r="C275" s="4">
-        <v>1</v>
+      <c r="A275" s="8"/>
+      <c r="B275" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C275" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B276" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="C276" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B277" t="s">
-        <v>11</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B278" t="s">
-        <v>13</v>
-      </c>
-      <c r="C278" s="3">
-        <v>-1E+20</v>
-      </c>
-    </row>
+        <v>16</v>
+      </c>
+      <c r="C277" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="279" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B279" t="s">
-        <v>26</v>
-      </c>
-      <c r="C279" t="s">
-        <v>27</v>
+      <c r="A279" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B280" t="s">
-        <v>16</v>
-      </c>
-      <c r="C280" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>5</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B281" t="s">
+        <v>7</v>
+      </c>
+      <c r="C281" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="282" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A282" s="2" t="s">
-        <v>81</v>
+      <c r="B282" t="s">
+        <v>3</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B283" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B284" t="s">
-        <v>7</v>
-      </c>
-      <c r="C284" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="C284" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B285" t="s">
-        <v>3</v>
-      </c>
-      <c r="C285" s="4" t="s">
-        <v>45</v>
+      <c r="A285" s="8"/>
+      <c r="B285" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C285" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B286" t="s">
-        <v>10</v>
+      <c r="A286" s="8"/>
+      <c r="B286" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C286" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B287" t="s">
-        <v>11</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>82</v>
+        <v>26</v>
+      </c>
+      <c r="C287" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B288" t="s">
-        <v>13</v>
-      </c>
-      <c r="C288" s="3">
-        <v>-1E+20</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B289" t="s">
-        <v>26</v>
-      </c>
-      <c r="C289" t="s">
-        <v>83</v>
-      </c>
-    </row>
+        <v>16</v>
+      </c>
+      <c r="C288" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="290" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B290" t="s">
-        <v>16</v>
-      </c>
-      <c r="C290" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="A290" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B291" t="s">
+        <v>5</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="292" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A292" s="2" t="s">
-        <v>84</v>
+      <c r="B292" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B293" t="s">
-        <v>5</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="C293" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B294" t="s">
-        <v>7</v>
-      </c>
-      <c r="C294" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B295" t="s">
-        <v>3</v>
-      </c>
-      <c r="C295" s="4">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C295" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B296" t="s">
-        <v>10</v>
+      <c r="A296" s="8"/>
+      <c r="B296" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C296" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B297" t="s">
-        <v>11</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>85</v>
+      <c r="A297" s="8"/>
+      <c r="B297" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C297" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B298" t="s">
-        <v>13</v>
-      </c>
-      <c r="C298" s="3">
-        <v>-1E+20</v>
+        <v>26</v>
+      </c>
+      <c r="C298" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B299" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C299" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B300" t="s">
-        <v>16</v>
-      </c>
-      <c r="C300" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A301" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="302" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A302" t="s">
-        <v>86</v>
+      <c r="B302" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B303" t="s">
-        <v>5</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="C303" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B304" t="s">
-        <v>7</v>
-      </c>
-      <c r="C304" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B305" t="s">
-        <v>3</v>
-      </c>
-      <c r="C305" s="4" t="s">
-        <v>45</v>
+        <v>11</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B306" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C306" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B307" t="s">
-        <v>11</v>
-      </c>
-      <c r="C307" t="s">
-        <v>87</v>
+      <c r="A307" s="8"/>
+      <c r="B307" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C307" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B308" t="s">
-        <v>13</v>
-      </c>
-      <c r="C308" s="3">
-        <v>-1E+20</v>
+      <c r="A308" s="8"/>
+      <c r="B308" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C308" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3077,7 +3246,7 @@
         <v>26</v>
       </c>
       <c r="C309" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3090,8 +3259,8 @@
     </row>
     <row r="311" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="312" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A312" t="s">
-        <v>89</v>
+      <c r="A312" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3114,80 +3283,88 @@
       <c r="B315" t="s">
         <v>3</v>
       </c>
-      <c r="C315" s="4" t="s">
-        <v>45</v>
+      <c r="C315" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B316" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B317" t="s">
-        <v>11</v>
-      </c>
-      <c r="C317" t="s">
-        <v>90</v>
+        <v>13</v>
+      </c>
+      <c r="C317" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B318" t="s">
-        <v>13</v>
-      </c>
-      <c r="C318" s="3">
-        <v>-1E+20</v>
+      <c r="A318" s="8"/>
+      <c r="B318" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C318" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B319" t="s">
-        <v>26</v>
-      </c>
-      <c r="C319" t="s">
-        <v>88</v>
+      <c r="A319" s="8"/>
+      <c r="B319" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C319" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B320" t="s">
+        <v>26</v>
+      </c>
+      <c r="C320" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B321" t="s">
         <v>16</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C321" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A322" t="s">
-        <v>91</v>
-      </c>
-    </row>
+    <row r="322" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="323" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B323" t="s">
-        <v>5</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>19</v>
+      <c r="A323" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B324" t="s">
-        <v>7</v>
-      </c>
-      <c r="C324" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B325" t="s">
-        <v>3</v>
-      </c>
-      <c r="C325" s="4" t="s">
-        <v>45</v>
+        <v>7</v>
+      </c>
+      <c r="C325" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B326" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3195,7 +3372,7 @@
         <v>11</v>
       </c>
       <c r="C327" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3207,137 +3384,147 @@
       </c>
     </row>
     <row r="329" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B329" t="s">
+      <c r="A329" s="8"/>
+      <c r="B329" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C329" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A330" s="8"/>
+      <c r="B330" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C330" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B331" t="s">
         <v>26</v>
       </c>
-      <c r="C329" t="s">
+      <c r="C331" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B330" t="s">
+    <row r="332" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B332" t="s">
         <v>16</v>
       </c>
-      <c r="C330" t="s">
+      <c r="C332" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A332" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B333" t="s">
-        <v>5</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="333" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="334" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B334" t="s">
-        <v>7</v>
-      </c>
-      <c r="C334" t="s">
-        <v>8</v>
+      <c r="A334" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B335" t="s">
-        <v>3</v>
-      </c>
-      <c r="C335" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B336" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C336" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B337" t="s">
-        <v>11</v>
-      </c>
-      <c r="C337" t="s">
-        <v>94</v>
+        <v>3</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B338" t="s">
-        <v>13</v>
-      </c>
-      <c r="C338" s="3">
-        <v>-1E+20</v>
+        <v>11</v>
+      </c>
+      <c r="C338" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B339" t="s">
+        <v>13</v>
+      </c>
+      <c r="C339" s="3">
+        <v>-1E+20</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A340" s="8"/>
+      <c r="B340" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C339" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B340" t="s">
+      <c r="C340" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A341" s="8"/>
+      <c r="B341" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C340" s="4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B341" t="s">
-        <v>26</v>
-      </c>
-      <c r="C341" t="s">
-        <v>88</v>
+      <c r="C341" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B342" t="s">
+        <v>26</v>
+      </c>
+      <c r="C342" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B343" t="s">
         <v>16</v>
       </c>
-      <c r="C342" t="s">
+      <c r="C343" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A344" t="s">
-        <v>95</v>
-      </c>
-    </row>
+    <row r="344" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="345" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B345" t="s">
-        <v>5</v>
-      </c>
-      <c r="C345" s="2" t="s">
-        <v>19</v>
+      <c r="A345" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B346" t="s">
-        <v>7</v>
-      </c>
-      <c r="C346" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B347" t="s">
-        <v>3</v>
-      </c>
-      <c r="C347" s="4" t="s">
-        <v>31</v>
+        <v>7</v>
+      </c>
+      <c r="C347" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B348" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3345,7 +3532,7 @@
         <v>11</v>
       </c>
       <c r="C349" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3357,606 +3544,661 @@
       </c>
     </row>
     <row r="351" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B351" t="s">
+      <c r="A351" s="8"/>
+      <c r="B351" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C351" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A352" s="8"/>
+      <c r="B352" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C352" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B353" t="s">
         <v>26</v>
       </c>
-      <c r="C351" t="s">
+      <c r="C353" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B352" t="s">
+    <row r="354" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B354" t="s">
         <v>16</v>
       </c>
-      <c r="C352" t="s">
+      <c r="C354" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A354" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B355" t="s">
-        <v>5</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="355" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="356" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B356" t="s">
-        <v>7</v>
-      </c>
-      <c r="C356" t="s">
-        <v>8</v>
+      <c r="A356" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B357" t="s">
-        <v>3</v>
-      </c>
-      <c r="C357" s="4" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B358" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C358" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B359" t="s">
-        <v>11</v>
-      </c>
-      <c r="C359" t="s">
-        <v>98</v>
+        <v>3</v>
+      </c>
+      <c r="C359" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B360" t="s">
-        <v>13</v>
-      </c>
-      <c r="C360" s="3">
-        <v>-1E+20</v>
+        <v>11</v>
+      </c>
+      <c r="C360" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B361" t="s">
+        <v>13</v>
+      </c>
+      <c r="C361" s="3">
+        <v>-1E+20</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A362" s="8"/>
+      <c r="B362" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C362" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A363" s="8"/>
+      <c r="B363" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C363" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B364" t="s">
         <v>26</v>
       </c>
-      <c r="C361" t="s">
+      <c r="C364" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B362" t="s">
-        <v>16</v>
-      </c>
-      <c r="C362" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A364" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B365" t="s">
-        <v>5</v>
-      </c>
-      <c r="C365" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B366" t="s">
-        <v>7</v>
-      </c>
-      <c r="C366" t="s">
-        <v>24</v>
-      </c>
-    </row>
+        <v>16</v>
+      </c>
+      <c r="C365" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="367" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B367" t="s">
-        <v>3</v>
-      </c>
-      <c r="C367" s="4" t="s">
-        <v>45</v>
+      <c r="A367" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B368" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B369" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C369" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B370" t="s">
-        <v>13</v>
-      </c>
-      <c r="C370" s="3">
-        <v>-1E+20</v>
+        <v>3</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B371" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C371" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B372" t="s">
-        <v>16</v>
-      </c>
-      <c r="C372" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>13</v>
+      </c>
+      <c r="C372" s="3">
+        <v>-1E+20</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A373" s="8"/>
+      <c r="B373" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C373" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
     <row r="374" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A374" t="s">
-        <v>101</v>
+      <c r="A374" s="8"/>
+      <c r="B374" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C374" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B375" t="s">
-        <v>5</v>
-      </c>
-      <c r="C375" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="C375" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B376" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C376" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B377" t="s">
-        <v>3</v>
-      </c>
-      <c r="C377" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="378" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B378" t="s">
-        <v>10</v>
+      <c r="A378" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B379" t="s">
-        <v>11</v>
-      </c>
-      <c r="C379" t="s">
-        <v>102</v>
+        <v>5</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B380" t="s">
-        <v>13</v>
-      </c>
-      <c r="C380" s="3">
-        <v>-1E+20</v>
+        <v>7</v>
+      </c>
+      <c r="C380" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B381" t="s">
-        <v>26</v>
-      </c>
-      <c r="C381" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="C381" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B382" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C382" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B383" t="s">
+        <v>13</v>
+      </c>
+      <c r="C383" s="3">
+        <v>-1E+20</v>
+      </c>
+    </row>
     <row r="384" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A384" t="s">
-        <v>103</v>
+      <c r="A384" s="8"/>
+      <c r="B384" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C384" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B385" t="s">
-        <v>5</v>
-      </c>
-      <c r="C385" s="2" t="s">
-        <v>19</v>
+      <c r="A385" s="8"/>
+      <c r="B385" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C385" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B386" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C386" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B387" t="s">
-        <v>3</v>
-      </c>
-      <c r="C387" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B388" t="s">
-        <v>10</v>
-      </c>
-    </row>
+        <v>16</v>
+      </c>
+      <c r="C387" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="389" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B389" t="s">
-        <v>11</v>
-      </c>
-      <c r="C389" t="s">
-        <v>104</v>
+      <c r="A389" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B390" t="s">
-        <v>13</v>
-      </c>
-      <c r="C390" s="3">
-        <v>-1E+20</v>
+        <v>5</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B391" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C391" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B392" t="s">
-        <v>16</v>
-      </c>
-      <c r="C392" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>3</v>
+      </c>
+      <c r="C392" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B393" t="s">
+        <v>11</v>
+      </c>
+      <c r="C393" t="s">
+        <v>100</v>
+      </c>
+    </row>
     <row r="394" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A394" t="s">
-        <v>105</v>
+      <c r="B394" t="s">
+        <v>13</v>
+      </c>
+      <c r="C394" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B395" t="s">
-        <v>5</v>
-      </c>
-      <c r="C395" s="2" t="s">
-        <v>19</v>
+      <c r="A395" s="8"/>
+      <c r="B395" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C395" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B396" t="s">
-        <v>7</v>
-      </c>
-      <c r="C396" t="s">
-        <v>24</v>
+      <c r="A396" s="8"/>
+      <c r="B396" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C396" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B397" t="s">
-        <v>3</v>
-      </c>
-      <c r="C397" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C397" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B398" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B399" t="s">
-        <v>11</v>
-      </c>
-      <c r="C399" t="s">
-        <v>106</v>
-      </c>
-    </row>
+        <v>16</v>
+      </c>
+      <c r="C398" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="400" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B400" t="s">
-        <v>13</v>
-      </c>
-      <c r="C400" s="3">
-        <v>-1E+20</v>
+      <c r="A400" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B401" t="s">
-        <v>26</v>
-      </c>
-      <c r="C401" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B402" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C402" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B403" t="s">
+        <v>3</v>
+      </c>
+      <c r="C403" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="404" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A404" t="s">
-        <v>107</v>
+      <c r="B404" t="s">
+        <v>11</v>
+      </c>
+      <c r="C404" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B405" t="s">
-        <v>5</v>
-      </c>
-      <c r="C405" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="C405" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B406" t="s">
-        <v>7</v>
-      </c>
-      <c r="C406" t="s">
-        <v>24</v>
+      <c r="A406" s="8"/>
+      <c r="B406" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C406" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B407" t="s">
-        <v>3</v>
-      </c>
-      <c r="C407" s="4" t="s">
-        <v>31</v>
+      <c r="A407" s="8"/>
+      <c r="B407" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C407" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B408" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="C408" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B409" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C409" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B410" t="s">
-        <v>13</v>
-      </c>
-      <c r="C410" s="3">
-        <v>-1E+20</v>
-      </c>
-    </row>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="411" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B411" t="s">
-        <v>26</v>
-      </c>
-      <c r="C411" t="s">
-        <v>27</v>
+      <c r="A411" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B412" t="s">
-        <v>16</v>
-      </c>
-      <c r="C412" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>5</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B413" t="s">
+        <v>7</v>
+      </c>
+      <c r="C413" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="414" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A414" s="2" t="s">
-        <v>109</v>
+      <c r="B414" t="s">
+        <v>3</v>
+      </c>
+      <c r="C414" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B415" t="s">
-        <v>5</v>
-      </c>
-      <c r="C415" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="C415" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B416" t="s">
-        <v>7</v>
-      </c>
-      <c r="C416" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="C416" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B417" t="s">
-        <v>3</v>
-      </c>
-      <c r="C417" s="4" t="s">
-        <v>35</v>
+      <c r="A417" s="8"/>
+      <c r="B417" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C417" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B418" t="s">
-        <v>10</v>
+      <c r="A418" s="8"/>
+      <c r="B418" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C418" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B419" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C419" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B420" t="s">
-        <v>13</v>
-      </c>
-      <c r="C420" s="3">
-        <v>-1E+20</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B421" t="s">
-        <v>26</v>
-      </c>
-      <c r="C421" t="s">
-        <v>27</v>
-      </c>
-    </row>
+        <v>16</v>
+      </c>
+      <c r="C420" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="422" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B422" t="s">
-        <v>16</v>
-      </c>
-      <c r="C422" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="A422" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B423" t="s">
+        <v>5</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="424" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A424" t="s">
-        <v>111</v>
+      <c r="B424" t="s">
+        <v>7</v>
+      </c>
+      <c r="C424" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B425" t="s">
-        <v>5</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="C425" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B426" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C426" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B427" t="s">
-        <v>3</v>
-      </c>
-      <c r="C427" s="4" t="s">
-        <v>112</v>
+        <v>13</v>
+      </c>
+      <c r="C427" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B428" t="s">
-        <v>10</v>
+      <c r="A428" s="8"/>
+      <c r="B428" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C428" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B429" t="s">
-        <v>11</v>
-      </c>
-      <c r="C429" t="s">
-        <v>113</v>
+      <c r="A429" s="8"/>
+      <c r="B429" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C429" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B430" t="s">
-        <v>13</v>
-      </c>
-      <c r="C430" s="3">
-        <v>-1E+20</v>
+        <v>26</v>
+      </c>
+      <c r="C430" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B431" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C431" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B432" t="s">
-        <v>16</v>
-      </c>
-      <c r="C432" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A433" t="s">
+        <v>107</v>
+      </c>
+    </row>
     <row r="434" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A434" t="s">
-        <v>114</v>
+      <c r="B434" t="s">
+        <v>5</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B435" t="s">
-        <v>5</v>
-      </c>
-      <c r="C435" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="C435" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B436" t="s">
-        <v>7</v>
-      </c>
-      <c r="C436" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="C436" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B437" t="s">
-        <v>3</v>
-      </c>
-      <c r="C437" s="4" t="s">
-        <v>112</v>
+        <v>11</v>
+      </c>
+      <c r="C437" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B438" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C438" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B439" t="s">
-        <v>11</v>
-      </c>
-      <c r="C439" t="s">
-        <v>115</v>
+      <c r="A439" s="8"/>
+      <c r="B439" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C439" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B440" t="s">
-        <v>13</v>
-      </c>
-      <c r="C440" s="3">
-        <v>-1E+20</v>
+      <c r="A440" s="8"/>
+      <c r="B440" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C440" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3977,8 +4219,8 @@
     </row>
     <row r="443" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="444" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A444" t="s">
-        <v>116</v>
+      <c r="A444" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4002,79 +4244,87 @@
         <v>3</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B448" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C448" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B449" t="s">
-        <v>11</v>
-      </c>
-      <c r="C449" t="s">
-        <v>117</v>
+        <v>13</v>
+      </c>
+      <c r="C449" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B450" t="s">
-        <v>13</v>
-      </c>
-      <c r="C450" s="3">
-        <v>-1E+20</v>
+      <c r="A450" s="8"/>
+      <c r="B450" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C450" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B451" t="s">
-        <v>26</v>
-      </c>
-      <c r="C451" t="s">
-        <v>27</v>
+      <c r="A451" s="8"/>
+      <c r="B451" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C451" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B452" t="s">
+        <v>26</v>
+      </c>
+      <c r="C452" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B453" t="s">
         <v>16</v>
       </c>
-      <c r="C452" t="s">
+      <c r="C453" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A454" t="s">
-        <v>118</v>
-      </c>
-    </row>
+    <row r="454" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="455" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B455" t="s">
-        <v>5</v>
-      </c>
-      <c r="C455" s="2" t="s">
-        <v>19</v>
+      <c r="A455" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B456" t="s">
-        <v>7</v>
-      </c>
-      <c r="C456" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B457" t="s">
-        <v>3</v>
-      </c>
-      <c r="C457" s="4" t="s">
-        <v>112</v>
+        <v>7</v>
+      </c>
+      <c r="C457" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B458" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C458" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4082,7 +4332,7 @@
         <v>11</v>
       </c>
       <c r="C459" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4112,7 +4362,7 @@
     <row r="463" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="464" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4141,74 +4391,82 @@
     </row>
     <row r="468" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B468" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C468" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B469" t="s">
-        <v>11</v>
-      </c>
-      <c r="C469" t="s">
-        <v>121</v>
+        <v>13</v>
+      </c>
+      <c r="C469" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B470" t="s">
-        <v>13</v>
-      </c>
-      <c r="C470" s="3">
-        <v>-1E+20</v>
+      <c r="A470" s="8"/>
+      <c r="B470" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C470" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B471" t="s">
-        <v>26</v>
-      </c>
-      <c r="C471" t="s">
-        <v>27</v>
+      <c r="A471" s="8"/>
+      <c r="B471" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C471" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B472" t="s">
+        <v>26</v>
+      </c>
+      <c r="C472" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B473" t="s">
         <v>16</v>
       </c>
-      <c r="C472" t="s">
+      <c r="C473" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A474" t="s">
-        <v>122</v>
-      </c>
-    </row>
+    <row r="474" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="475" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B475" t="s">
-        <v>5</v>
-      </c>
-      <c r="C475" s="2" t="s">
-        <v>19</v>
+      <c r="A475" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B476" t="s">
-        <v>7</v>
-      </c>
-      <c r="C476" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B477" t="s">
-        <v>3</v>
-      </c>
-      <c r="C477" s="4" t="s">
-        <v>123</v>
+        <v>7</v>
+      </c>
+      <c r="C477" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B478" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C478" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4216,7 +4474,7 @@
         <v>11</v>
       </c>
       <c r="C479" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4228,843 +4486,911 @@
       </c>
     </row>
     <row r="481" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B481" t="s">
+      <c r="A481" s="8"/>
+      <c r="B481" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C481" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A482" s="8"/>
+      <c r="B482" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C482" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B483" t="s">
         <v>26</v>
       </c>
-      <c r="C481" t="s">
+      <c r="C483" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B482" t="s">
+    <row r="484" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B484" t="s">
         <v>16</v>
       </c>
-      <c r="C482" t="s">
+      <c r="C484" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="483" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A484" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B485" t="s">
-        <v>5</v>
-      </c>
-      <c r="C485" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="485" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="486" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B486" t="s">
-        <v>7</v>
-      </c>
-      <c r="C486" t="s">
-        <v>24</v>
+      <c r="A486" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B487" t="s">
-        <v>3</v>
-      </c>
-      <c r="C487" s="4" t="s">
-        <v>125</v>
+        <v>5</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B488" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C488" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="489" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B489" t="s">
-        <v>11</v>
-      </c>
-      <c r="C489" t="s">
-        <v>127</v>
+        <v>3</v>
+      </c>
+      <c r="C489" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B490" t="s">
-        <v>13</v>
-      </c>
-      <c r="C490" s="3">
-        <v>-1E+20</v>
+        <v>11</v>
+      </c>
+      <c r="C490" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B491" t="s">
+        <v>13</v>
+      </c>
+      <c r="C491" s="3">
+        <v>-1E+20</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A492" s="8"/>
+      <c r="B492" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C492" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A493" s="8"/>
+      <c r="B493" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C493" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B494" t="s">
         <v>26</v>
       </c>
-      <c r="C491" t="s">
+      <c r="C494" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B492" t="s">
-        <v>16</v>
-      </c>
-      <c r="C492" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A494" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="495" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B495" t="s">
-        <v>5</v>
-      </c>
-      <c r="C495" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B496" t="s">
-        <v>7</v>
-      </c>
-      <c r="C496" t="s">
-        <v>24</v>
-      </c>
-    </row>
+        <v>16</v>
+      </c>
+      <c r="C495" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="497" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B497" t="s">
-        <v>3</v>
-      </c>
-      <c r="C497" s="4" t="s">
-        <v>129</v>
+      <c r="A497" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="498" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B498" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B499" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C499" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B500" t="s">
-        <v>13</v>
-      </c>
-      <c r="C500" s="3">
-        <v>-1E+20</v>
+        <v>3</v>
+      </c>
+      <c r="C500" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B501" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C501" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B502" t="s">
-        <v>16</v>
-      </c>
-      <c r="C502" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>13</v>
+      </c>
+      <c r="C502" s="3">
+        <v>-1E+20</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A503" s="8"/>
+      <c r="B503" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C503" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
     <row r="504" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A504" t="s">
-        <v>131</v>
+      <c r="A504" s="8"/>
+      <c r="B504" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C504" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="505" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B505" t="s">
-        <v>5</v>
-      </c>
-      <c r="C505" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="C505" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="506" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B506" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C506" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B507" t="s">
-        <v>3</v>
-      </c>
-      <c r="C507" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="508" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B508" t="s">
-        <v>10</v>
+      <c r="A508" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="509" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B509" t="s">
-        <v>11</v>
-      </c>
-      <c r="C509" t="s">
-        <v>132</v>
+        <v>5</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="510" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B510" t="s">
-        <v>13</v>
-      </c>
-      <c r="C510" s="3">
-        <v>-1E+20</v>
+        <v>7</v>
+      </c>
+      <c r="C510" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="511" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B511" t="s">
-        <v>26</v>
-      </c>
-      <c r="C511" t="s">
-        <v>88</v>
+        <v>3</v>
+      </c>
+      <c r="C511" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B512" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C512" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B513" t="s">
+        <v>13</v>
+      </c>
+      <c r="C513" s="3">
+        <v>-1E+20</v>
+      </c>
+    </row>
     <row r="514" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A514" t="s">
-        <v>133</v>
+      <c r="A514" s="8"/>
+      <c r="B514" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C514" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="515" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B515" t="s">
-        <v>5</v>
-      </c>
-      <c r="C515" s="2" t="s">
-        <v>19</v>
+      <c r="A515" s="8"/>
+      <c r="B515" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C515" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="516" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B516" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C516" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="517" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B517" t="s">
-        <v>3</v>
-      </c>
-      <c r="C517" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B518" t="s">
-        <v>10</v>
-      </c>
-    </row>
+        <v>16</v>
+      </c>
+      <c r="C517" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="519" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B519" t="s">
-        <v>11</v>
-      </c>
-      <c r="C519" t="s">
-        <v>134</v>
+      <c r="A519" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="520" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B520" t="s">
-        <v>13</v>
-      </c>
-      <c r="C520" s="3">
-        <v>-1E+20</v>
+        <v>5</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="521" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B521" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C521" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
     </row>
     <row r="522" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B522" t="s">
-        <v>16</v>
-      </c>
-      <c r="C522" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>3</v>
+      </c>
+      <c r="C522" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B523" t="s">
+        <v>11</v>
+      </c>
+      <c r="C523" t="s">
+        <v>127</v>
+      </c>
+    </row>
     <row r="524" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A524" t="s">
-        <v>135</v>
+      <c r="B524" t="s">
+        <v>13</v>
+      </c>
+      <c r="C524" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="525" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B525" t="s">
-        <v>5</v>
-      </c>
-      <c r="C525" s="2" t="s">
-        <v>19</v>
+      <c r="A525" s="8"/>
+      <c r="B525" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C525" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="526" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B526" t="s">
-        <v>7</v>
-      </c>
-      <c r="C526" t="s">
-        <v>8</v>
+      <c r="A526" s="8"/>
+      <c r="B526" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C526" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="527" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B527" t="s">
-        <v>3</v>
-      </c>
-      <c r="C527" s="4" t="s">
-        <v>112</v>
+        <v>26</v>
+      </c>
+      <c r="C527" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="528" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B528" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="529" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B529" t="s">
-        <v>11</v>
-      </c>
-      <c r="C529" t="s">
-        <v>136</v>
-      </c>
-    </row>
+        <v>16</v>
+      </c>
+      <c r="C528" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="530" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B530" t="s">
-        <v>13</v>
-      </c>
-      <c r="C530" s="3">
-        <v>-1E+20</v>
+      <c r="A530" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="531" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B531" t="s">
-        <v>26</v>
-      </c>
-      <c r="C531" t="s">
-        <v>88</v>
+        <v>5</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="532" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B532" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C532" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B533" t="s">
+        <v>3</v>
+      </c>
+      <c r="C533" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="534" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A534" t="s">
-        <v>137</v>
+      <c r="B534" t="s">
+        <v>11</v>
+      </c>
+      <c r="C534" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="535" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B535" t="s">
-        <v>5</v>
-      </c>
-      <c r="C535" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="C535" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="536" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B536" t="s">
-        <v>7</v>
-      </c>
-      <c r="C536" t="s">
-        <v>8</v>
+      <c r="A536" s="8"/>
+      <c r="B536" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C536" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="537" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B537" t="s">
-        <v>3</v>
-      </c>
-      <c r="C537" s="4" t="s">
-        <v>112</v>
+      <c r="A537" s="8"/>
+      <c r="B537" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C537" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="538" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B538" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="C538" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="539" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B539" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C539" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B540" t="s">
-        <v>13</v>
-      </c>
-      <c r="C540" s="3">
-        <v>-1E+20</v>
-      </c>
-    </row>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="541" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B541" t="s">
-        <v>26</v>
-      </c>
-      <c r="C541" t="s">
-        <v>88</v>
+      <c r="A541" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="542" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B542" t="s">
-        <v>16</v>
-      </c>
-      <c r="C542" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>5</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B543" t="s">
+        <v>7</v>
+      </c>
+      <c r="C543" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="544" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A544" t="s">
-        <v>139</v>
+      <c r="B544" t="s">
+        <v>3</v>
+      </c>
+      <c r="C544" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="545" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B545" t="s">
-        <v>5</v>
-      </c>
-      <c r="C545" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="C545" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="546" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B546" t="s">
-        <v>7</v>
-      </c>
-      <c r="C546" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="C546" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="547" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B547" t="s">
-        <v>3</v>
-      </c>
-      <c r="C547" s="4" t="s">
-        <v>112</v>
+      <c r="A547" s="8"/>
+      <c r="B547" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C547" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="548" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B548" t="s">
-        <v>10</v>
+      <c r="A548" s="8"/>
+      <c r="B548" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C548" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="549" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B549" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C549" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
     </row>
     <row r="550" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B550" t="s">
-        <v>13</v>
-      </c>
-      <c r="C550" s="3">
-        <v>-1E+20</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B551" t="s">
-        <v>26</v>
-      </c>
-      <c r="C551" t="s">
-        <v>88</v>
-      </c>
-    </row>
+        <v>16</v>
+      </c>
+      <c r="C550" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="552" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B552" t="s">
-        <v>16</v>
-      </c>
-      <c r="C552" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="553" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="A552" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B553" t="s">
+        <v>5</v>
+      </c>
+      <c r="C553" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="554" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A554" t="s">
-        <v>141</v>
+      <c r="B554" t="s">
+        <v>7</v>
+      </c>
+      <c r="C554" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="555" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B555" t="s">
-        <v>5</v>
-      </c>
-      <c r="C555" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="C555" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="556" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B556" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C556" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
     </row>
     <row r="557" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B557" t="s">
-        <v>3</v>
-      </c>
-      <c r="C557" s="4" t="s">
-        <v>123</v>
+        <v>13</v>
+      </c>
+      <c r="C557" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="558" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B558" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="C558" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="559" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B559" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C559" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B560" t="s">
-        <v>13</v>
-      </c>
-      <c r="C560" s="3">
-        <v>-1E+20</v>
-      </c>
-    </row>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="561" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B561" t="s">
-        <v>26</v>
-      </c>
-      <c r="C561" t="s">
-        <v>88</v>
+      <c r="A561" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="562" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B562" t="s">
-        <v>16</v>
-      </c>
-      <c r="C562" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="563" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>5</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B563" t="s">
+        <v>7</v>
+      </c>
+      <c r="C563" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="564" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A564" t="s">
-        <v>143</v>
+      <c r="B564" t="s">
+        <v>3</v>
+      </c>
+      <c r="C564" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="565" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B565" t="s">
-        <v>5</v>
-      </c>
-      <c r="C565" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="C565" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="566" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B566" t="s">
-        <v>7</v>
-      </c>
-      <c r="C566" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="C566" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="567" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B567" t="s">
-        <v>3</v>
-      </c>
-      <c r="C567" s="4" t="s">
-        <v>125</v>
+      <c r="A567" s="8"/>
+      <c r="B567" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C567" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="568" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B568" t="s">
-        <v>10</v>
+      <c r="A568" s="8"/>
+      <c r="B568" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C568" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="569" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B569" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C569" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
     </row>
     <row r="570" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B570" t="s">
-        <v>13</v>
-      </c>
-      <c r="C570" s="3">
-        <v>-1E+20</v>
-      </c>
-    </row>
-    <row r="571" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B571" t="s">
-        <v>26</v>
-      </c>
-      <c r="C571" t="s">
-        <v>88</v>
-      </c>
-    </row>
+        <v>16</v>
+      </c>
+      <c r="C570" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="572" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B572" t="s">
-        <v>16</v>
-      </c>
-      <c r="C572" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="573" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="A572" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B573" t="s">
+        <v>5</v>
+      </c>
+      <c r="C573" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="574" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A574" s="2" t="s">
-        <v>145</v>
+      <c r="B574" t="s">
+        <v>7</v>
+      </c>
+      <c r="C574" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="575" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B575" t="s">
-        <v>5</v>
-      </c>
-      <c r="C575" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="C575" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="576" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B576" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C576" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
     </row>
     <row r="577" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B577" t="s">
-        <v>3</v>
-      </c>
-      <c r="C577" s="4" t="s">
-        <v>129</v>
+        <v>13</v>
+      </c>
+      <c r="C577" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="578" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B578" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="C578" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="579" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B579" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C579" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="580" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B580" t="s">
-        <v>13</v>
-      </c>
-      <c r="C580" s="3">
-        <v>-1E+20</v>
-      </c>
-    </row>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="581" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B581" t="s">
-        <v>26</v>
-      </c>
-      <c r="C581" t="s">
-        <v>88</v>
+      <c r="A581" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="582" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B582" t="s">
-        <v>16</v>
-      </c>
-      <c r="C582" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="583" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>5</v>
+      </c>
+      <c r="C582" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B583" t="s">
+        <v>7</v>
+      </c>
+      <c r="C583" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="584" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A584" t="s">
-        <v>147</v>
+      <c r="B584" t="s">
+        <v>3</v>
+      </c>
+      <c r="C584" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="585" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B585" t="s">
-        <v>5</v>
-      </c>
-      <c r="C585" s="2" t="s">
-        <v>148</v>
+        <v>11</v>
+      </c>
+      <c r="C585" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="586" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B586" t="s">
-        <v>7</v>
-      </c>
-      <c r="C586" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="C586" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="587" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B587" t="s">
-        <v>3</v>
-      </c>
-      <c r="C587" s="4">
-        <v>1</v>
+      <c r="A587" s="8"/>
+      <c r="B587" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C587" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="588" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B588" t="s">
-        <v>10</v>
+      <c r="A588" s="8"/>
+      <c r="B588" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C588" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="589" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B589" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C589" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
     </row>
     <row r="590" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B590" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C590" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="591" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A591" s="7"/>
-      <c r="B591" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C591" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="592" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B590" t="s">
+        <v>16</v>
+      </c>
+      <c r="C590" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A592" t="s">
+        <v>141</v>
+      </c>
+    </row>
     <row r="593" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A593" t="s">
-        <v>152</v>
+      <c r="B593" t="s">
+        <v>5</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="594" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B594" t="s">
-        <v>5</v>
-      </c>
-      <c r="C594" s="2" t="s">
-        <v>148</v>
+        <v>7</v>
+      </c>
+      <c r="C594" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="595" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B595" t="s">
-        <v>7</v>
-      </c>
-      <c r="C595" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C595" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="596" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B596" t="s">
-        <v>3</v>
-      </c>
-      <c r="C596" s="4">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C596" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="597" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B597" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C597" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="598" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B598" t="s">
-        <v>11</v>
-      </c>
-      <c r="C598" t="s">
-        <v>153</v>
+      <c r="A598" s="8"/>
+      <c r="B598" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C598" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="599" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B599" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C599" s="5" t="s">
-        <v>171</v>
+      <c r="A599" s="8"/>
+      <c r="B599" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C599" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="600" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B600" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C600" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="601" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A602" t="s">
-        <v>154</v>
-      </c>
-    </row>
+      <c r="B600" t="s">
+        <v>26</v>
+      </c>
+      <c r="C600" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B601" t="s">
+        <v>16</v>
+      </c>
+      <c r="C601" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="603" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B603" t="s">
-        <v>5</v>
-      </c>
-      <c r="C603" s="2" t="s">
-        <v>148</v>
+      <c r="A603" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="604" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B604" t="s">
-        <v>7</v>
-      </c>
-      <c r="C604" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C604" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="605" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B605" t="s">
-        <v>3</v>
-      </c>
-      <c r="C605" s="4">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C605" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="606" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B606" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C606" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="607" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5072,353 +5398,376 @@
         <v>11</v>
       </c>
       <c r="C607" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="608" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B608" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C608" s="5" t="s">
-        <v>171</v>
+      <c r="B608" t="s">
+        <v>13</v>
+      </c>
+      <c r="C608" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="609" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A609" s="8"/>
       <c r="B609" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C609" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="610" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>14</v>
+      </c>
+      <c r="C609" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A610" s="8"/>
+      <c r="B610" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C610" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
     <row r="611" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A611" t="s">
-        <v>156</v>
+      <c r="B611" t="s">
+        <v>26</v>
+      </c>
+      <c r="C611" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="612" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B612" t="s">
-        <v>5</v>
-      </c>
-      <c r="C612" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="613" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B613" t="s">
-        <v>7</v>
-      </c>
-      <c r="C613" t="s">
-        <v>8</v>
-      </c>
-    </row>
+        <v>16</v>
+      </c>
+      <c r="C612" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="614" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B614" t="s">
-        <v>3</v>
-      </c>
-      <c r="C614" s="4">
-        <v>1</v>
+      <c r="A614" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="615" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B615" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C615" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="616" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B616" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C616" t="s">
-        <v>157</v>
+        <v>8</v>
       </c>
     </row>
     <row r="617" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B617" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C617" s="5" t="s">
-        <v>171</v>
+      <c r="B617" t="s">
+        <v>3</v>
+      </c>
+      <c r="C617" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="618" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B618" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C618" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="619" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B618" t="s">
+        <v>11</v>
+      </c>
+      <c r="C618" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B619" t="s">
+        <v>13</v>
+      </c>
+      <c r="C619" s="3">
+        <v>-1E+20</v>
+      </c>
+    </row>
     <row r="620" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A620" t="s">
+      <c r="A620" s="8"/>
+      <c r="B620" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C620" s="11" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="621" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B621" t="s">
-        <v>5</v>
-      </c>
-      <c r="C621" s="2" t="s">
-        <v>148</v>
+      <c r="A621" s="8"/>
+      <c r="B621" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C621" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="622" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B622" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C622" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="623" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B623" t="s">
-        <v>3</v>
-      </c>
-      <c r="C623" s="4">
+        <v>16</v>
+      </c>
+      <c r="C623" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A625" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B626" t="s">
+        <v>5</v>
+      </c>
+      <c r="C626" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B627" t="s">
+        <v>7</v>
+      </c>
+      <c r="C627" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B628" t="s">
+        <v>3</v>
+      </c>
+      <c r="C628" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B624" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="625" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B625" t="s">
-        <v>11</v>
-      </c>
-      <c r="C625" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="626" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B626" s="6" t="s">
+    <row r="629" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B629" t="s">
+        <v>11</v>
+      </c>
+      <c r="C629" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B630" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C626" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="627" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B627" s="8" t="s">
+      <c r="C630" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A631" s="6"/>
+      <c r="B631" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C627" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="628" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A629" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="630" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B630" t="s">
-        <v>5</v>
-      </c>
-      <c r="C630" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="631" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B631" t="s">
-        <v>7</v>
-      </c>
-      <c r="C631" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="632" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B632" t="s">
-        <v>3</v>
-      </c>
-      <c r="C632" s="4">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="C631" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="633" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B633" t="s">
-        <v>10</v>
+      <c r="A633" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="634" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B634" t="s">
-        <v>11</v>
-      </c>
-      <c r="C634" t="s">
-        <v>159</v>
+        <v>5</v>
+      </c>
+      <c r="C634" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="635" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B635" s="6" t="s">
+      <c r="B635" t="s">
+        <v>7</v>
+      </c>
+      <c r="C635" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B636" t="s">
+        <v>3</v>
+      </c>
+      <c r="C636" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B637" t="s">
+        <v>11</v>
+      </c>
+      <c r="C637" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B638" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C635" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="636" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B636" s="8" t="s">
+      <c r="C638" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B639" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C636" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="637" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A638" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="639" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B639" t="s">
-        <v>5</v>
-      </c>
-      <c r="C639" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="640" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B640" t="s">
-        <v>7</v>
-      </c>
-      <c r="C640" t="s">
-        <v>8</v>
-      </c>
-    </row>
+      <c r="C639" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="641" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B641" t="s">
-        <v>3</v>
-      </c>
-      <c r="C641" s="4">
-        <v>1</v>
+      <c r="A641" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="642" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B642" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C642" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="643" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B643" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C643" t="s">
-        <v>161</v>
+        <v>8</v>
       </c>
     </row>
     <row r="644" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B644" s="6" t="s">
+      <c r="B644" t="s">
+        <v>3</v>
+      </c>
+      <c r="C644" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B645" t="s">
+        <v>11</v>
+      </c>
+      <c r="C645" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B646" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C644" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="645" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B645" s="8" t="s">
+      <c r="C646" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B647" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C645" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="646" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A647" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="648" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B648" t="s">
-        <v>5</v>
-      </c>
-      <c r="C648" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
+      <c r="C647" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="649" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B649" t="s">
-        <v>7</v>
-      </c>
-      <c r="C649" t="s">
-        <v>8</v>
+      <c r="A649" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="650" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B650" t="s">
-        <v>3</v>
-      </c>
-      <c r="C650" s="4">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C650" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="651" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B651" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C651" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="652" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B652" t="s">
-        <v>11</v>
-      </c>
-      <c r="C652" t="s">
-        <v>163</v>
+        <v>3</v>
+      </c>
+      <c r="C652" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B653" s="6" t="s">
+      <c r="B653" t="s">
+        <v>11</v>
+      </c>
+      <c r="C653" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B654" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C653" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="654" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B654" s="8" t="s">
+      <c r="C654" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B655" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C654" s="9" t="s">
+      <c r="C655" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A657" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="655" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A656" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="657" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B657" t="s">
-        <v>5</v>
-      </c>
-      <c r="C657" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="658" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B658" t="s">
-        <v>7</v>
-      </c>
-      <c r="C658" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C658" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="659" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B659" t="s">
-        <v>3</v>
-      </c>
-      <c r="C659" s="4">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C659" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="660" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B660" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C660" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5426,29 +5775,29 @@
         <v>11</v>
       </c>
       <c r="C661" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="662" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B662" s="6" t="s">
+      <c r="B662" s="9" t="s">
         <v>150</v>
       </c>
       <c r="C662" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="663" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B663" s="8" t="s">
+      <c r="B663" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C663" s="9" t="s">
-        <v>172</v>
+      <c r="C663" s="7" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="664" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="665" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A665" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="666" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5477,131 +5826,307 @@
     </row>
     <row r="669" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B669" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C669" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="670" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B670" t="s">
-        <v>11</v>
-      </c>
-      <c r="C670" t="s">
-        <v>167</v>
+      <c r="B670" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C670" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="671" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B671" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C671" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="672" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B672" s="8" t="s">
+      <c r="B671" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C672" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="673" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="C671" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A673" t="s">
+        <v>160</v>
+      </c>
+    </row>
     <row r="674" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A674" t="s">
-        <v>168</v>
+      <c r="B674" t="s">
+        <v>5</v>
+      </c>
+      <c r="C674" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="675" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B675" t="s">
-        <v>5</v>
-      </c>
-      <c r="C675" s="2" t="s">
-        <v>148</v>
+        <v>7</v>
+      </c>
+      <c r="C675" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="676" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B676" t="s">
-        <v>7</v>
-      </c>
-      <c r="C676" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C676" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B677" t="s">
-        <v>3</v>
-      </c>
-      <c r="C677" s="4">
+        <v>11</v>
+      </c>
+      <c r="C677" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B678" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C678" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B679" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C679" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A681" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B682" t="s">
+        <v>5</v>
+      </c>
+      <c r="C682" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B683" t="s">
+        <v>7</v>
+      </c>
+      <c r="C683" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B684" t="s">
+        <v>3</v>
+      </c>
+      <c r="C684" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B678" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="679" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B679" t="s">
-        <v>11</v>
-      </c>
-      <c r="C679" t="s">
+    <row r="685" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B685" t="s">
+        <v>11</v>
+      </c>
+      <c r="C685" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B686" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C686" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B687" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C687" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A689" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B690" t="s">
+        <v>5</v>
+      </c>
+      <c r="C690" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B691" t="s">
+        <v>7</v>
+      </c>
+      <c r="C691" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B692" t="s">
+        <v>3</v>
+      </c>
+      <c r="C692" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B693" t="s">
+        <v>11</v>
+      </c>
+      <c r="C693" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B694" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C694" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B695" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C695" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A697" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B698" t="s">
+        <v>5</v>
+      </c>
+      <c r="C698" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B699" t="s">
+        <v>7</v>
+      </c>
+      <c r="C699" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B700" t="s">
+        <v>3</v>
+      </c>
+      <c r="C700" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B701" t="s">
+        <v>11</v>
+      </c>
+      <c r="C701" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B702" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C702" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B703" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C703" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A705" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B706" t="s">
+        <v>5</v>
+      </c>
+      <c r="C706" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B707" t="s">
+        <v>7</v>
+      </c>
+      <c r="C707" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B708" t="s">
+        <v>3</v>
+      </c>
+      <c r="C708" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B709" t="s">
+        <v>11</v>
+      </c>
+      <c r="C709" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="680" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B680" s="6" t="s">
+    <row r="710" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B710" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C680" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="681" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B681" s="8" t="s">
+      <c r="C710" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B711" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C681" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="682" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="C711" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="721" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="722" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="723" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5716,7 +6241,7 @@
     <row r="832" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="833" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="834" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="41.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="836" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="837" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="838" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5775,7 +6300,7 @@
     <row r="891" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="892" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="893" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="41.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="895" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="896" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="897" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5843,65 +6368,6 @@
     <row r="959" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="960" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="961" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="998" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="999" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1001" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1002" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1003" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1004" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1005" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1006" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1007" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1008" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1009" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1010" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1011" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1012" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1013" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1014" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1015" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1016" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1017" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1018" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1019" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1020" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/specific_variables/flux-components-level1.xlsx
+++ b/specific_variables/flux-components-level1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310932DC-C5A2-0445-A145-4A7F900018A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69247401-756D-194A-B4BC-C42E5B95B7E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29200" yWindow="-2460" windowWidth="17100" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7180" yWindow="460" windowWidth="21480" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables-specific" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="179">
   <si>
     <t>Variable</t>
   </si>
@@ -973,8 +973,8 @@
   </sheetPr>
   <dimension ref="A1:C961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A678" workbookViewId="0">
-      <selection activeCell="C711" sqref="A1:C711"/>
+    <sheetView tabSelected="1" topLeftCell="A551" workbookViewId="0">
+      <selection activeCell="A560" sqref="A560:C561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4344,1786 +4344,1834 @@
       </c>
     </row>
     <row r="461" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B461" t="s">
+      <c r="A461" s="8"/>
+      <c r="B461" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C461" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A462" s="8"/>
+      <c r="B462" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C462" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B463" t="s">
         <v>26</v>
       </c>
-      <c r="C461" t="s">
+      <c r="C463" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B462" t="s">
+    <row r="464" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B464" t="s">
         <v>16</v>
       </c>
-      <c r="C462" t="s">
+      <c r="C464" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A464" t="s">
+    <row r="465" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A466" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B465" t="s">
-        <v>5</v>
-      </c>
-      <c r="C465" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B466" t="s">
-        <v>7</v>
-      </c>
-      <c r="C466" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B467" t="s">
-        <v>3</v>
-      </c>
-      <c r="C467" s="4" t="s">
-        <v>112</v>
+        <v>5</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B468" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C468" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B469" t="s">
+        <v>3</v>
+      </c>
+      <c r="C469" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B470" t="s">
+        <v>11</v>
+      </c>
+      <c r="C470" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B471" t="s">
         <v>13</v>
       </c>
-      <c r="C469" s="3">
+      <c r="C471" s="3">
         <v>-1E+20</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A470" s="8"/>
-      <c r="B470" s="8" t="s">
+    <row r="472" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A472" s="8"/>
+      <c r="B472" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C470" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A471" s="8"/>
-      <c r="B471" s="8" t="s">
+      <c r="C472" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A473" s="8"/>
+      <c r="B473" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C471" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B472" t="s">
+      <c r="C473" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B474" t="s">
         <v>26</v>
       </c>
-      <c r="C472" t="s">
+      <c r="C474" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B473" t="s">
+    <row r="475" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B475" t="s">
         <v>16</v>
       </c>
-      <c r="C473" t="s">
+      <c r="C475" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A475" t="s">
+    <row r="476" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A477" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B476" t="s">
-        <v>5</v>
-      </c>
-      <c r="C476" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B477" t="s">
-        <v>7</v>
-      </c>
-      <c r="C477" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B478" t="s">
-        <v>3</v>
-      </c>
-      <c r="C478" s="4" t="s">
-        <v>112</v>
+        <v>5</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B479" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C479" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B480" t="s">
+        <v>3</v>
+      </c>
+      <c r="C480" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B481" t="s">
+        <v>11</v>
+      </c>
+      <c r="C481" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B482" t="s">
         <v>13</v>
       </c>
-      <c r="C480" s="3">
+      <c r="C482" s="3">
         <v>-1E+20</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A481" s="8"/>
-      <c r="B481" s="8" t="s">
+    <row r="483" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A483" s="8"/>
+      <c r="B483" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C481" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A482" s="8"/>
-      <c r="B482" s="8" t="s">
+      <c r="C483" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A484" s="8"/>
+      <c r="B484" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C482" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B483" t="s">
+      <c r="C484" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B485" t="s">
         <v>26</v>
       </c>
-      <c r="C483" t="s">
+      <c r="C485" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="484" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B484" t="s">
+    <row r="486" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B486" t="s">
         <v>16</v>
       </c>
-      <c r="C484" t="s">
+      <c r="C486" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="485" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A486" t="s">
+    <row r="487" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A488" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B487" t="s">
-        <v>5</v>
-      </c>
-      <c r="C487" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B488" t="s">
-        <v>7</v>
-      </c>
-      <c r="C488" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="489" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B489" t="s">
-        <v>3</v>
-      </c>
-      <c r="C489" s="4" t="s">
-        <v>112</v>
+        <v>5</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B490" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C490" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B491" t="s">
+        <v>3</v>
+      </c>
+      <c r="C491" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B492" t="s">
+        <v>11</v>
+      </c>
+      <c r="C492" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B493" t="s">
         <v>13</v>
       </c>
-      <c r="C491" s="3">
+      <c r="C493" s="3">
         <v>-1E+20</v>
       </c>
     </row>
-    <row r="492" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A492" s="8"/>
-      <c r="B492" s="8" t="s">
+    <row r="494" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A494" s="8"/>
+      <c r="B494" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C492" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A493" s="8"/>
-      <c r="B493" s="8" t="s">
+      <c r="C494" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A495" s="8"/>
+      <c r="B495" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C493" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B494" t="s">
+      <c r="C495" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B496" t="s">
         <v>26</v>
       </c>
-      <c r="C494" t="s">
+      <c r="C496" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="495" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B495" t="s">
+    <row r="497" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B497" t="s">
         <v>16</v>
       </c>
-      <c r="C495" t="s">
+      <c r="C497" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="496" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A497" t="s">
+    <row r="498" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A499" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B498" t="s">
-        <v>5</v>
-      </c>
-      <c r="C498" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B499" t="s">
-        <v>7</v>
-      </c>
-      <c r="C499" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B500" t="s">
-        <v>3</v>
-      </c>
-      <c r="C500" s="4" t="s">
-        <v>112</v>
+        <v>5</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B501" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C501" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B502" t="s">
+        <v>3</v>
+      </c>
+      <c r="C502" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B503" t="s">
+        <v>11</v>
+      </c>
+      <c r="C503" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B504" t="s">
         <v>13</v>
       </c>
-      <c r="C502" s="3">
+      <c r="C504" s="3">
         <v>-1E+20</v>
       </c>
     </row>
-    <row r="503" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A503" s="8"/>
-      <c r="B503" s="8" t="s">
+    <row r="505" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A505" s="8"/>
+      <c r="B505" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C503" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A504" s="8"/>
-      <c r="B504" s="8" t="s">
+      <c r="C505" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A506" s="8"/>
+      <c r="B506" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C504" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B505" t="s">
+      <c r="C506" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B507" t="s">
         <v>26</v>
       </c>
-      <c r="C505" t="s">
+      <c r="C507" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="506" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B506" t="s">
+    <row r="508" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B508" t="s">
         <v>16</v>
       </c>
-      <c r="C506" t="s">
+      <c r="C508" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="507" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A508" t="s">
+    <row r="509" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A510" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B509" t="s">
-        <v>5</v>
-      </c>
-      <c r="C509" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B510" t="s">
-        <v>7</v>
-      </c>
-      <c r="C510" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="511" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B511" t="s">
-        <v>3</v>
-      </c>
-      <c r="C511" s="4" t="s">
-        <v>123</v>
+        <v>5</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B512" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C512" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
     </row>
     <row r="513" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B513" t="s">
+        <v>3</v>
+      </c>
+      <c r="C513" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B514" t="s">
+        <v>11</v>
+      </c>
+      <c r="C514" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B515" t="s">
         <v>13</v>
       </c>
-      <c r="C513" s="3">
+      <c r="C515" s="3">
         <v>-1E+20</v>
       </c>
     </row>
-    <row r="514" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A514" s="8"/>
-      <c r="B514" s="8" t="s">
+    <row r="516" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A516" s="8"/>
+      <c r="B516" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C514" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A515" s="8"/>
-      <c r="B515" s="8" t="s">
+      <c r="C516" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A517" s="8"/>
+      <c r="B517" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C515" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B516" t="s">
+      <c r="C517" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B518" t="s">
         <v>26</v>
       </c>
-      <c r="C516" t="s">
+      <c r="C518" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="517" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B517" t="s">
+    <row r="519" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B519" t="s">
         <v>16</v>
       </c>
-      <c r="C517" t="s">
+      <c r="C519" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="518" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A519" t="s">
+    <row r="520" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A521" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B520" t="s">
-        <v>5</v>
-      </c>
-      <c r="C520" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B521" t="s">
-        <v>7</v>
-      </c>
-      <c r="C521" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="522" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B522" t="s">
-        <v>3</v>
-      </c>
-      <c r="C522" s="4" t="s">
-        <v>125</v>
+        <v>5</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="523" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B523" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C523" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
     </row>
     <row r="524" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B524" t="s">
+        <v>3</v>
+      </c>
+      <c r="C524" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B525" t="s">
+        <v>11</v>
+      </c>
+      <c r="C525" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B526" t="s">
         <v>13</v>
       </c>
-      <c r="C524" s="3">
+      <c r="C526" s="3">
         <v>-1E+20</v>
       </c>
     </row>
-    <row r="525" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A525" s="8"/>
-      <c r="B525" s="8" t="s">
+    <row r="527" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A527" s="8"/>
+      <c r="B527" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C525" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A526" s="8"/>
-      <c r="B526" s="8" t="s">
+      <c r="C527" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A528" s="8"/>
+      <c r="B528" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C526" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="527" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B527" t="s">
+      <c r="C528" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B529" t="s">
         <v>26</v>
       </c>
-      <c r="C527" t="s">
+      <c r="C529" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="528" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B528" t="s">
+    <row r="530" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B530" t="s">
         <v>16</v>
       </c>
-      <c r="C528" t="s">
+      <c r="C530" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="529" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A530" s="2" t="s">
+    <row r="531" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A532" s="2" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B531" t="s">
-        <v>5</v>
-      </c>
-      <c r="C531" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B532" t="s">
-        <v>7</v>
-      </c>
-      <c r="C532" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="533" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B533" t="s">
-        <v>3</v>
-      </c>
-      <c r="C533" s="4" t="s">
-        <v>129</v>
+        <v>5</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="534" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B534" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C534" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
     </row>
     <row r="535" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B535" t="s">
+        <v>3</v>
+      </c>
+      <c r="C535" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B536" t="s">
+        <v>11</v>
+      </c>
+      <c r="C536" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B537" t="s">
         <v>13</v>
       </c>
-      <c r="C535" s="3">
+      <c r="C537" s="3">
         <v>-1E+20</v>
       </c>
     </row>
-    <row r="536" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A536" s="8"/>
-      <c r="B536" s="8" t="s">
+    <row r="538" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A538" s="8"/>
+      <c r="B538" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C536" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="537" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A537" s="8"/>
-      <c r="B537" s="8" t="s">
+      <c r="C538" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A539" s="8"/>
+      <c r="B539" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C537" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="538" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B538" t="s">
+      <c r="C539" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B540" t="s">
         <v>26</v>
       </c>
-      <c r="C538" t="s">
+      <c r="C540" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="539" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B539" t="s">
+    <row r="541" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B541" t="s">
         <v>16</v>
       </c>
-      <c r="C539" t="s">
+      <c r="C541" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="540" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A541" t="s">
+    <row r="542" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A543" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B542" t="s">
-        <v>5</v>
-      </c>
-      <c r="C542" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B543" t="s">
-        <v>7</v>
-      </c>
-      <c r="C543" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="544" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B544" t="s">
-        <v>3</v>
-      </c>
-      <c r="C544" s="4" t="s">
-        <v>112</v>
+        <v>5</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="545" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B545" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C545" t="s">
-        <v>132</v>
+        <v>8</v>
       </c>
     </row>
     <row r="546" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B546" t="s">
+        <v>3</v>
+      </c>
+      <c r="C546" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B547" t="s">
+        <v>11</v>
+      </c>
+      <c r="C547" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B548" t="s">
         <v>13</v>
       </c>
-      <c r="C546" s="3">
+      <c r="C548" s="3">
         <v>-1E+20</v>
       </c>
     </row>
-    <row r="547" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A547" s="8"/>
-      <c r="B547" s="8" t="s">
+    <row r="549" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A549" s="8"/>
+      <c r="B549" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C547" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="548" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A548" s="8"/>
-      <c r="B548" s="8" t="s">
+      <c r="C549" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A550" s="8"/>
+      <c r="B550" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C548" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="549" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B549" t="s">
+      <c r="C550" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B551" t="s">
         <v>26</v>
       </c>
-      <c r="C549" t="s">
+      <c r="C551" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="550" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B550" t="s">
+    <row r="552" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B552" t="s">
         <v>16</v>
       </c>
-      <c r="C550" t="s">
+      <c r="C552" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="551" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A552" t="s">
+    <row r="553" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A554" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="553" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B553" t="s">
-        <v>5</v>
-      </c>
-      <c r="C553" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B554" t="s">
-        <v>7</v>
-      </c>
-      <c r="C554" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="555" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B555" t="s">
-        <v>3</v>
-      </c>
-      <c r="C555" s="4" t="s">
-        <v>112</v>
+        <v>5</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="556" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B556" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C556" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
     </row>
     <row r="557" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B557" t="s">
-        <v>13</v>
-      </c>
-      <c r="C557" s="3">
-        <v>-1E+20</v>
+        <v>3</v>
+      </c>
+      <c r="C557" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="558" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B558" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C558" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
     </row>
     <row r="559" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B559" t="s">
-        <v>16</v>
-      </c>
-      <c r="C559" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>13</v>
+      </c>
+      <c r="C559" s="3">
+        <v>-1E+20</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A560" s="8"/>
+      <c r="B560" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C560" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
     <row r="561" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A561" t="s">
-        <v>135</v>
+      <c r="A561" s="8"/>
+      <c r="B561" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C561" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="562" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B562" t="s">
-        <v>5</v>
-      </c>
-      <c r="C562" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="C562" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="563" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B563" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C563" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="564" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B564" t="s">
-        <v>3</v>
-      </c>
-      <c r="C564" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="565" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B565" t="s">
-        <v>11</v>
-      </c>
-      <c r="C565" t="s">
-        <v>136</v>
+      <c r="A565" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="566" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B566" t="s">
-        <v>13</v>
-      </c>
-      <c r="C566" s="3">
-        <v>-1E+20</v>
+        <v>5</v>
+      </c>
+      <c r="C566" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="567" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A567" s="8"/>
-      <c r="B567" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C567" s="11" t="s">
-        <v>174</v>
+      <c r="B567" t="s">
+        <v>7</v>
+      </c>
+      <c r="C567" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="568" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A568" s="8"/>
-      <c r="B568" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C568" s="11" t="s">
-        <v>174</v>
+      <c r="B568" t="s">
+        <v>3</v>
+      </c>
+      <c r="C568" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="569" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B569" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C569" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
     </row>
     <row r="570" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B570" t="s">
-        <v>16</v>
-      </c>
-      <c r="C570" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="571" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>13</v>
+      </c>
+      <c r="C570" s="3">
+        <v>-1E+20</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A571" s="8"/>
+      <c r="B571" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C571" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
     <row r="572" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A572" t="s">
-        <v>137</v>
+      <c r="A572" s="8"/>
+      <c r="B572" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C572" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="573" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B573" t="s">
-        <v>5</v>
-      </c>
-      <c r="C573" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="C573" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="574" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B574" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C574" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="575" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B575" t="s">
-        <v>3</v>
-      </c>
-      <c r="C575" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="576" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B576" t="s">
-        <v>11</v>
-      </c>
-      <c r="C576" t="s">
-        <v>138</v>
+      <c r="A576" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="577" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B577" t="s">
-        <v>13</v>
-      </c>
-      <c r="C577" s="3">
-        <v>-1E+20</v>
+        <v>5</v>
+      </c>
+      <c r="C577" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="578" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B578" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C578" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="579" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B579" t="s">
-        <v>16</v>
-      </c>
-      <c r="C579" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="580" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>3</v>
+      </c>
+      <c r="C579" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B580" t="s">
+        <v>11</v>
+      </c>
+      <c r="C580" t="s">
+        <v>138</v>
+      </c>
+    </row>
     <row r="581" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A581" t="s">
-        <v>139</v>
+      <c r="B581" t="s">
+        <v>13</v>
+      </c>
+      <c r="C581" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="582" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B582" t="s">
-        <v>5</v>
-      </c>
-      <c r="C582" s="2" t="s">
-        <v>19</v>
+      <c r="A582" s="8"/>
+      <c r="B582" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C582" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="583" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B583" t="s">
-        <v>7</v>
-      </c>
-      <c r="C583" t="s">
-        <v>8</v>
+      <c r="A583" s="8"/>
+      <c r="B583" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C583" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="584" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B584" t="s">
-        <v>3</v>
-      </c>
-      <c r="C584" s="4" t="s">
-        <v>112</v>
+        <v>26</v>
+      </c>
+      <c r="C584" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="585" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B585" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C585" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="586" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B586" t="s">
-        <v>13</v>
-      </c>
-      <c r="C586" s="3">
-        <v>-1E+20</v>
-      </c>
-    </row>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="587" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A587" s="8"/>
-      <c r="B587" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C587" s="11" t="s">
-        <v>174</v>
+      <c r="A587" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="588" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A588" s="8"/>
-      <c r="B588" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C588" s="11" t="s">
-        <v>174</v>
+      <c r="B588" t="s">
+        <v>5</v>
+      </c>
+      <c r="C588" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="589" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B589" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C589" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="590" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B590" t="s">
-        <v>16</v>
-      </c>
-      <c r="C590" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="591" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>3</v>
+      </c>
+      <c r="C590" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B591" t="s">
+        <v>11</v>
+      </c>
+      <c r="C591" t="s">
+        <v>140</v>
+      </c>
+    </row>
     <row r="592" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A592" t="s">
-        <v>141</v>
+      <c r="B592" t="s">
+        <v>13</v>
+      </c>
+      <c r="C592" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="593" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B593" t="s">
-        <v>5</v>
-      </c>
-      <c r="C593" s="2" t="s">
-        <v>19</v>
+      <c r="A593" s="8"/>
+      <c r="B593" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C593" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="594" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B594" t="s">
-        <v>7</v>
-      </c>
-      <c r="C594" t="s">
-        <v>8</v>
+      <c r="A594" s="8"/>
+      <c r="B594" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C594" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="595" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B595" t="s">
-        <v>3</v>
-      </c>
-      <c r="C595" s="4" t="s">
-        <v>123</v>
+        <v>26</v>
+      </c>
+      <c r="C595" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="596" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B596" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C596" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="597" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B597" t="s">
-        <v>13</v>
-      </c>
-      <c r="C597" s="3">
-        <v>-1E+20</v>
-      </c>
-    </row>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="598" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A598" s="8"/>
-      <c r="B598" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C598" s="11" t="s">
-        <v>174</v>
+      <c r="A598" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="599" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A599" s="8"/>
-      <c r="B599" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C599" s="11" t="s">
-        <v>174</v>
+      <c r="B599" t="s">
+        <v>5</v>
+      </c>
+      <c r="C599" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="600" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B600" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C600" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="601" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B601" t="s">
-        <v>16</v>
-      </c>
-      <c r="C601" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="602" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>3</v>
+      </c>
+      <c r="C601" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B602" t="s">
+        <v>11</v>
+      </c>
+      <c r="C602" t="s">
+        <v>142</v>
+      </c>
+    </row>
     <row r="603" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A603" t="s">
-        <v>143</v>
+      <c r="B603" t="s">
+        <v>13</v>
+      </c>
+      <c r="C603" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="604" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B604" t="s">
-        <v>5</v>
-      </c>
-      <c r="C604" s="2" t="s">
-        <v>19</v>
+      <c r="A604" s="8"/>
+      <c r="B604" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C604" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="605" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B605" t="s">
-        <v>7</v>
-      </c>
-      <c r="C605" t="s">
-        <v>8</v>
+      <c r="A605" s="8"/>
+      <c r="B605" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C605" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="606" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B606" t="s">
-        <v>3</v>
-      </c>
-      <c r="C606" s="4" t="s">
-        <v>125</v>
+        <v>26</v>
+      </c>
+      <c r="C606" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="607" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B607" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C607" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="608" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B608" t="s">
-        <v>13</v>
-      </c>
-      <c r="C608" s="3">
-        <v>-1E+20</v>
-      </c>
-    </row>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="609" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A609" s="8"/>
-      <c r="B609" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C609" s="11" t="s">
-        <v>174</v>
+      <c r="A609" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="610" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A610" s="8"/>
-      <c r="B610" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C610" s="11" t="s">
-        <v>174</v>
+      <c r="B610" t="s">
+        <v>5</v>
+      </c>
+      <c r="C610" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="611" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B611" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C611" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="612" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B612" t="s">
-        <v>16</v>
-      </c>
-      <c r="C612" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="613" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>3</v>
+      </c>
+      <c r="C612" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B613" t="s">
+        <v>11</v>
+      </c>
+      <c r="C613" t="s">
+        <v>144</v>
+      </c>
+    </row>
     <row r="614" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A614" s="2" t="s">
-        <v>145</v>
+      <c r="B614" t="s">
+        <v>13</v>
+      </c>
+      <c r="C614" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="615" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B615" t="s">
-        <v>5</v>
-      </c>
-      <c r="C615" s="2" t="s">
-        <v>19</v>
+      <c r="A615" s="8"/>
+      <c r="B615" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C615" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="616" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B616" t="s">
-        <v>7</v>
-      </c>
-      <c r="C616" t="s">
-        <v>8</v>
+      <c r="A616" s="8"/>
+      <c r="B616" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C616" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="617" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B617" t="s">
-        <v>3</v>
-      </c>
-      <c r="C617" s="4" t="s">
-        <v>129</v>
+        <v>26</v>
+      </c>
+      <c r="C617" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="618" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B618" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C618" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="619" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B619" t="s">
-        <v>13</v>
-      </c>
-      <c r="C619" s="3">
-        <v>-1E+20</v>
-      </c>
-    </row>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="620" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A620" s="8"/>
-      <c r="B620" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C620" s="11" t="s">
-        <v>174</v>
+      <c r="A620" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="621" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A621" s="8"/>
-      <c r="B621" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C621" s="11" t="s">
-        <v>174</v>
+      <c r="B621" t="s">
+        <v>5</v>
+      </c>
+      <c r="C621" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="622" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B622" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C622" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="623" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B623" t="s">
-        <v>16</v>
-      </c>
-      <c r="C623" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>3</v>
+      </c>
+      <c r="C623" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B624" t="s">
+        <v>11</v>
+      </c>
+      <c r="C624" t="s">
+        <v>146</v>
+      </c>
+    </row>
     <row r="625" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A625" t="s">
-        <v>147</v>
+      <c r="B625" t="s">
+        <v>13</v>
+      </c>
+      <c r="C625" s="3">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="626" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B626" t="s">
-        <v>5</v>
-      </c>
-      <c r="C626" s="2" t="s">
-        <v>148</v>
+      <c r="A626" s="8"/>
+      <c r="B626" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C626" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="627" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B627" t="s">
-        <v>7</v>
-      </c>
-      <c r="C627" t="s">
-        <v>8</v>
+      <c r="A627" s="8"/>
+      <c r="B627" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C627" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="628" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B628" t="s">
-        <v>3</v>
-      </c>
-      <c r="C628" s="4">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="C628" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="629" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B629" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C629" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="630" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B630" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C630" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="631" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A631" s="6"/>
-      <c r="B631" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C631" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="632" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="A631" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B632" t="s">
+        <v>5</v>
+      </c>
+      <c r="C632" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
     <row r="633" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A633" t="s">
-        <v>152</v>
+      <c r="B633" t="s">
+        <v>7</v>
+      </c>
+      <c r="C633" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="634" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B634" t="s">
-        <v>5</v>
-      </c>
-      <c r="C634" s="2" t="s">
-        <v>148</v>
+        <v>3</v>
+      </c>
+      <c r="C634" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B635" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C635" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B636" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C636" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A637" s="6"/>
+      <c r="B637" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C637" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A639" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B640" t="s">
+        <v>5</v>
+      </c>
+      <c r="C640" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B641" t="s">
+        <v>7</v>
+      </c>
+      <c r="C641" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="636" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B636" t="s">
-        <v>3</v>
-      </c>
-      <c r="C636" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="637" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B637" t="s">
-        <v>11</v>
-      </c>
-      <c r="C637" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="638" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B638" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C638" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="639" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B639" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C639" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="640" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A641" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="642" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B642" t="s">
-        <v>5</v>
-      </c>
-      <c r="C642" s="2" t="s">
-        <v>148</v>
+        <v>3</v>
+      </c>
+      <c r="C642" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B643" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C643" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B644" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C644" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B645" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C645" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A647" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B648" t="s">
+        <v>5</v>
+      </c>
+      <c r="C648" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B649" t="s">
+        <v>7</v>
+      </c>
+      <c r="C649" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="644" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B644" t="s">
-        <v>3</v>
-      </c>
-      <c r="C644" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="645" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B645" t="s">
-        <v>11</v>
-      </c>
-      <c r="C645" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="646" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B646" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C646" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="647" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B647" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C647" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="648" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A649" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="650" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B650" t="s">
-        <v>5</v>
-      </c>
-      <c r="C650" s="2" t="s">
-        <v>148</v>
+        <v>3</v>
+      </c>
+      <c r="C650" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B651" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C651" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B652" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C652" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B653" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C653" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A655" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B656" t="s">
+        <v>5</v>
+      </c>
+      <c r="C656" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B657" t="s">
+        <v>7</v>
+      </c>
+      <c r="C657" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="652" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B652" t="s">
-        <v>3</v>
-      </c>
-      <c r="C652" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="653" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B653" t="s">
-        <v>11</v>
-      </c>
-      <c r="C653" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="654" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B654" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C654" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="655" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B655" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C655" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="656" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A657" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="658" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B658" t="s">
-        <v>5</v>
-      </c>
-      <c r="C658" s="2" t="s">
-        <v>148</v>
+        <v>3</v>
+      </c>
+      <c r="C658" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B659" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C659" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B660" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C660" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B661" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C661" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A663" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B664" t="s">
+        <v>5</v>
+      </c>
+      <c r="C664" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B665" t="s">
+        <v>7</v>
+      </c>
+      <c r="C665" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="660" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B660" t="s">
-        <v>3</v>
-      </c>
-      <c r="C660" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="661" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B661" t="s">
-        <v>11</v>
-      </c>
-      <c r="C661" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="662" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B662" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C662" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="663" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B663" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C663" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="664" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A665" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="666" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B666" t="s">
-        <v>5</v>
-      </c>
-      <c r="C666" s="2" t="s">
-        <v>148</v>
+        <v>3</v>
+      </c>
+      <c r="C666" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B667" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C667" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B668" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C668" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B669" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C669" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A671" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B672" t="s">
+        <v>5</v>
+      </c>
+      <c r="C672" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B673" t="s">
+        <v>7</v>
+      </c>
+      <c r="C673" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="668" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B668" t="s">
-        <v>3</v>
-      </c>
-      <c r="C668" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="669" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B669" t="s">
-        <v>11</v>
-      </c>
-      <c r="C669" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="670" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B670" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C670" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="671" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B671" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C671" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="672" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A673" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="674" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B674" t="s">
-        <v>5</v>
-      </c>
-      <c r="C674" s="2" t="s">
-        <v>148</v>
+        <v>3</v>
+      </c>
+      <c r="C674" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B675" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C675" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B676" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C676" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B677" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C677" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A679" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B680" t="s">
+        <v>5</v>
+      </c>
+      <c r="C680" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B681" t="s">
+        <v>7</v>
+      </c>
+      <c r="C681" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="676" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B676" t="s">
-        <v>3</v>
-      </c>
-      <c r="C676" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="677" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B677" t="s">
-        <v>11</v>
-      </c>
-      <c r="C677" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="678" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B678" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C678" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="679" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B679" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C679" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="680" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A681" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="682" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B682" t="s">
-        <v>5</v>
-      </c>
-      <c r="C682" s="2" t="s">
-        <v>148</v>
+        <v>3</v>
+      </c>
+      <c r="C682" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B683" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C683" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B684" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C684" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B685" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C685" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A687" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B688" t="s">
+        <v>5</v>
+      </c>
+      <c r="C688" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B689" t="s">
+        <v>7</v>
+      </c>
+      <c r="C689" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="684" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B684" t="s">
-        <v>3</v>
-      </c>
-      <c r="C684" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="685" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B685" t="s">
-        <v>11</v>
-      </c>
-      <c r="C685" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="686" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B686" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C686" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="687" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B687" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C687" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="688" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A689" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="690" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B690" t="s">
-        <v>5</v>
-      </c>
-      <c r="C690" s="2" t="s">
-        <v>148</v>
+        <v>3</v>
+      </c>
+      <c r="C690" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B691" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C691" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B692" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C692" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B693" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C693" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A695" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B696" t="s">
+        <v>5</v>
+      </c>
+      <c r="C696" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B697" t="s">
+        <v>7</v>
+      </c>
+      <c r="C697" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="692" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B692" t="s">
-        <v>3</v>
-      </c>
-      <c r="C692" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="693" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B693" t="s">
-        <v>11</v>
-      </c>
-      <c r="C693" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="694" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B694" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C694" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="695" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B695" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C695" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="696" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A697" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="698" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B698" t="s">
-        <v>5</v>
-      </c>
-      <c r="C698" s="2" t="s">
-        <v>148</v>
+        <v>3</v>
+      </c>
+      <c r="C698" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B699" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C699" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B700" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C700" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B701" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C701" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A703" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B704" t="s">
+        <v>5</v>
+      </c>
+      <c r="C704" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B705" t="s">
+        <v>7</v>
+      </c>
+      <c r="C705" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="700" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B700" t="s">
-        <v>3</v>
-      </c>
-      <c r="C700" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="701" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B701" t="s">
-        <v>11</v>
-      </c>
-      <c r="C701" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="702" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B702" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C702" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="703" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B703" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C703" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="704" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A705" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="706" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B706" t="s">
-        <v>5</v>
-      </c>
-      <c r="C706" s="2" t="s">
-        <v>148</v>
+        <v>3</v>
+      </c>
+      <c r="C706" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B707" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C707" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B708" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C708" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B709" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C709" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A711" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B712" t="s">
+        <v>5</v>
+      </c>
+      <c r="C712" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B713" t="s">
+        <v>7</v>
+      </c>
+      <c r="C713" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="708" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B708" t="s">
-        <v>3</v>
-      </c>
-      <c r="C708" s="4">
+    <row r="714" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B714" t="s">
+        <v>3</v>
+      </c>
+      <c r="C714" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B709" t="s">
-        <v>11</v>
-      </c>
-      <c r="C709" t="s">
+    <row r="715" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B715" t="s">
+        <v>11</v>
+      </c>
+      <c r="C715" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="710" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B710" s="9" t="s">
+    <row r="716" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B716" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C710" s="5" t="s">
+      <c r="C716" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="711" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B711" s="14" t="s">
+    <row r="717" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B717" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C711" s="7" t="s">
+      <c r="C717" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="712" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="718" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="719" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="720" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/specific_variables/flux-components-level1.xlsx
+++ b/specific_variables/flux-components-level1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69247401-756D-194A-B4BC-C42E5B95B7E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178AE73D-695E-AC47-A800-0C895C94D947}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7180" yWindow="460" windowWidth="21480" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30840" yWindow="-1080" windowWidth="21480" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables-specific" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="181">
   <si>
     <t>Variable</t>
   </si>
@@ -547,21 +547,22 @@
     <t>&lt;derived from file&gt;</t>
   </si>
   <si>
-    <t>0b,1b, 2b</t>
-  </si>
-  <si>
-    <t>bad_data
-good_data 
-suspect_data</t>
-  </si>
-  <si>
-    <t>0b,1b, 2b, 3b</t>
-  </si>
-  <si>
-    <t>bad_data
-good_data _good_for_reasearch
-suspect_data_good_for_general_use
-suspect_data_requires_further_checking_but_may_be_ok_for_general_use</t>
+    <t>0, 1, 2</t>
+  </si>
+  <si>
+    <t>bad_data good_data suspect_data</t>
+  </si>
+  <si>
+    <t>bad_data good_data  suspect_data</t>
+  </si>
+  <si>
+    <t>0, 1,  2</t>
+  </si>
+  <si>
+    <t>0, 1,  2, 3</t>
+  </si>
+  <si>
+    <t>bad_data good_data _good_for_reasearch suspect_data_good_for_general_use suspect_data_requires_further_checking_but_may_be_ok_for_general_use</t>
   </si>
 </sst>
 </file>
@@ -973,8 +974,8 @@
   </sheetPr>
   <dimension ref="A1:C961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A551" workbookViewId="0">
-      <selection activeCell="A560" sqref="A560:C561"/>
+    <sheetView tabSelected="1" topLeftCell="A685" workbookViewId="0">
+      <selection activeCell="C692" sqref="C692:C693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5683,7 +5684,7 @@
         <v>151</v>
       </c>
       <c r="C645" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="646" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5737,7 +5738,7 @@
         <v>151</v>
       </c>
       <c r="C653" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="654" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5783,7 +5784,7 @@
         <v>150</v>
       </c>
       <c r="C660" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="661" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5837,7 +5838,7 @@
         <v>150</v>
       </c>
       <c r="C668" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="669" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5891,7 +5892,7 @@
         <v>150</v>
       </c>
       <c r="C676" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="677" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5945,7 +5946,7 @@
         <v>150</v>
       </c>
       <c r="C684" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="685" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6053,7 +6054,7 @@
         <v>150</v>
       </c>
       <c r="C700" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="701" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6061,7 +6062,7 @@
         <v>151</v>
       </c>
       <c r="C701" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="702" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6107,7 +6108,7 @@
         <v>150</v>
       </c>
       <c r="C708" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="709" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6115,7 +6116,7 @@
         <v>151</v>
       </c>
       <c r="C709" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="710" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6161,7 +6162,7 @@
         <v>150</v>
       </c>
       <c r="C716" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="717" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6169,7 +6170,7 @@
         <v>151</v>
       </c>
       <c r="C717" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="718" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/specific_variables/flux-components-level1.xlsx
+++ b/specific_variables/flux-components-level1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178AE73D-695E-AC47-A800-0C895C94D947}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA7B7A2-A0E7-F04B-BAB5-623B2FAA2E20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30840" yWindow="-1080" windowWidth="21480" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29100" yWindow="-1620" windowWidth="21480" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables-specific" sheetId="2" r:id="rId1"/>
@@ -559,10 +559,10 @@
     <t>0, 1,  2</t>
   </si>
   <si>
-    <t>0, 1,  2, 3</t>
-  </si>
-  <si>
-    <t>bad_data good_data _good_for_reasearch suspect_data_good_for_general_use suspect_data_requires_further_checking_but_may_be_ok_for_general_use</t>
+    <t>bad_data good_data good_for_reasearch suspect_data_good_for_general_use suspect_data_requires_further_checking_but_may_be_ok_for_general_use</t>
+  </si>
+  <si>
+    <t>0, 1, 2, 3</t>
   </si>
 </sst>
 </file>
@@ -974,8 +974,8 @@
   </sheetPr>
   <dimension ref="A1:C961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A685" workbookViewId="0">
-      <selection activeCell="C692" sqref="C692:C693"/>
+    <sheetView tabSelected="1" topLeftCell="A678" workbookViewId="0">
+      <selection activeCell="C700" sqref="C700"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6054,7 +6054,7 @@
         <v>150</v>
       </c>
       <c r="C700" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="701" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6062,7 +6062,7 @@
         <v>151</v>
       </c>
       <c r="C701" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="702" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6108,7 +6108,7 @@
         <v>150</v>
       </c>
       <c r="C708" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="709" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6116,7 +6116,7 @@
         <v>151</v>
       </c>
       <c r="C709" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="710" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6162,7 +6162,7 @@
         <v>150</v>
       </c>
       <c r="C716" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="717" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6170,7 +6170,7 @@
         <v>151</v>
       </c>
       <c r="C717" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="718" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
